--- a/Share/Luban/Configs/Datas/__enums__.xlsx
+++ b/Share/Luban/Configs/Datas/__enums__.xlsx
@@ -1112,7 +1112,9 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
